--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/15/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.869399999999999</v>
+        <v>9.199399999999995</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>6.197899999999999</v>
+        <v>6.186500000000001</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,10 +550,10 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.418299999999999</v>
+        <v>5.201299999999998</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.089</v>
+        <v>-13.97489999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.9884</v>
+        <v>-11.09809999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.73720000000001</v>
+        <v>16.7732</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.03290000000001</v>
+        <v>17.14270000000001</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.56049999999999</v>
+        <v>-14.6233</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.715499999999999</v>
+        <v>5.3569</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.46409999999999</v>
+        <v>16.46939999999999</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.51959999999999</v>
+        <v>16.52239999999999</v>
       </c>
     </row>
     <row r="20">
@@ -771,10 +771,10 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.179599999999999</v>
+        <v>9.110999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.95720000000001</v>
+        <v>-11.7018</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.96760000000001</v>
+        <v>-11.93790000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,13 +808,13 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.09960000000001</v>
+        <v>-11.7447</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.86400000000002</v>
+        <v>16.93470000000002</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.3693</v>
+        <v>-12.22970000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.572400000000004</v>
+        <v>5.517200000000003</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,10 +924,10 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.7699</v>
+        <v>4.894799999999998</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.50720000000001</v>
+        <v>-11.14260000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.175799999999998</v>
+        <v>7.281199999999997</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.57470000000002</v>
+        <v>-11.59520000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>15.5379</v>
+        <v>16.26930000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.271499999999994</v>
+        <v>9.38319999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.63350000000001</v>
+        <v>-12.1875</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.43989999999999</v>
+        <v>-13.31949999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-14.0124</v>
+        <v>-13.7701</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.96819999999999</v>
+        <v>-13.94949999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,16 +1213,16 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.165399999999997</v>
+        <v>5.819399999999998</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.2911</v>
+        <v>-14.23779999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.42760000000001</v>
+        <v>16.18589999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1284,13 +1284,13 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.36579999999999</v>
+        <v>-14.08999999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.79039999999999</v>
+        <v>16.70199999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.989700000000004</v>
+        <v>6.121400000000006</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.1738</v>
+        <v>-12.00500000000001</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.325399999999999</v>
+        <v>4.892000000000004</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>6.163800000000001</v>
+        <v>5.891100000000002</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.785400000000002</v>
+        <v>5.378399999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.699000000000004</v>
+        <v>5.520099999999998</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1553,10 +1553,10 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.892600000000001</v>
+        <v>5.471600000000002</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.54170000000001</v>
+        <v>-11.3277</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.38330000000001</v>
+        <v>-11.3134</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.718099999999996</v>
+        <v>8.328199999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.085199999999993</v>
+        <v>9.316999999999988</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.24890000000001</v>
+        <v>-11.35610000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.53229999999999</v>
+        <v>-13.48239999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1995,10 +1995,10 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.651099999999993</v>
+        <v>5.644999999999995</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.26360000000001</v>
+        <v>-11.3609</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.01710000000001</v>
+        <v>18.11230000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2083,13 +2083,13 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.4231</v>
+        <v>-11.45430000000001</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.6581</v>
+        <v>16.627</v>
       </c>
     </row>
     <row r="98">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>6.499099999999999</v>
+        <v>5.614</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
